--- a/mashovFinal/uploadedFiles/פרויקט גמר.xlsx
+++ b/mashovFinal/uploadedFiles/פרויקט גמר.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB39215E-E08A-430C-8F1E-2458A7CCB1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67C05D-1AFF-4236-99FC-4CF814286D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2310,8 +2310,8 @@
   </sheetPr>
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2482,9 +2482,7 @@
       <c r="C4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="10">
-        <v>204265060</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
